--- a/knowledge_area_context_xlsx.xlsx
+++ b/knowledge_area_context_xlsx.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve">defn</t>
   </si>
@@ -55,37 +55,34 @@
     <t xml:space="preserve">metric</t>
   </si>
   <si>
-    <t xml:space="preserve">this is a generic defn.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1: item 1; 2: item 2; 3: item 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> input1; input 2; input 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> act 1; act 2; act 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Del 1; del 2; del 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> sup 1; sup 2; sup 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> part 1; part 2; part 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> con 1; con 2; con 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> tec 1; tec 2; tec 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> hammer; screwdriver; saw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  met 1; met 2; met 3</t>
+    <t xml:space="preserve"> 1. Identify data storage and processing requirements.; 2. Design structures and plans to meet the current and long-term data requirements of the enterprise.; 3. Strategically prepare organizations to quickly to evolve their products, services, and data to take advantage of business opportunities inherent in emerging technologies.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Enterprise Architecture; IT Standards and Goals; Data Strategies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Activities: Establish Enterprise Data; 1. Evaluate Existing Sata Architecture Specifications; 2. Develop a Roadmap; 3. Manage Enterprise Requirements within Projects (D); Integrate with Enterprise Architecture (O)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Data Architecture Design; Data Flows; Data Value Chains; Enterprise Data Model; Implementation Roadmap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enterprise Architects; Data Stewarts; Subject Matter Experts; Data Analyst</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Enterprise Data Architects; Data Modelers; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Database Administrators; Software Developers; Project Managers; Support Teams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lifecycle Reviews; Diagramming Clarity</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Data Modeling Tool. Asset Management Software; Graphic Design Application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Architecture standards complicance rates; Trends in implementation; Business value metrics</t>
   </si>
 </sst>
 </file>
@@ -160,12 +157,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -189,7 +190,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -230,38 +231,36 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="G2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="I2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="J2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="0" t="s">
+      <c r="K2" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
